--- a/企画リスト.xlsx
+++ b/企画リスト.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2018hiryusai\広報関係\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasatomo03\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E06132-1E2A-4CD4-9621-383DB60F6899}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="250">
   <si>
     <t>1年１組</t>
   </si>
@@ -816,11 +822,83 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D100&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
+              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
+  </si>
+  <si>
+    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D101&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
+              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
+  </si>
+  <si>
+    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D102&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
+              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
+  </si>
+  <si>
+    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D103&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
+              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
+  </si>
+  <si>
+    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D104&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
+              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
+  </si>
+  <si>
+    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D105&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
+              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
+  </si>
+  <si>
+    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D106&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
+              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
+  </si>
+  <si>
+    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D107&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
+              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
+  </si>
+  <si>
+    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D108&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
+              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
+  </si>
+  <si>
+    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D109&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
+              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
+  </si>
+  <si>
+    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D110&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
+              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
+  </si>
+  <si>
+    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D111&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
+              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
+  </si>
+  <si>
+    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D112&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
+              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
+  </si>
+  <si>
+    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D113&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
+              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
+  </si>
+  <si>
+    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D114&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
+              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
+  </si>
+  <si>
+    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D115&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
+              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
+  </si>
+  <si>
+    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D116&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
+              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -860,12 +938,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1149,21 +1236,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="35.35546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>224</v>
       </c>
@@ -1177,7 +1268,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1190,12 +1281,12 @@
       <c r="E3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1208,10 +1299,10 @@
       <c r="E4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1224,10 +1315,10 @@
       <c r="E5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1240,10 +1331,10 @@
       <c r="E6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1256,10 +1347,10 @@
       <c r="E7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1272,10 +1363,10 @@
       <c r="E8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1288,10 +1379,10 @@
       <c r="E9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1304,10 +1395,10 @@
       <c r="E10" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1320,10 +1411,10 @@
       <c r="E11" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,10 +1427,10 @@
       <c r="E12" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1352,10 +1443,10 @@
       <c r="E13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1368,10 +1459,10 @@
       <c r="E14" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1384,10 +1475,10 @@
       <c r="E15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1400,10 +1491,10 @@
       <c r="E16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -1416,10 +1507,10 @@
       <c r="E17" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1432,10 +1523,10 @@
       <c r="E18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1448,10 +1539,10 @@
       <c r="E19" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1464,10 +1555,10 @@
       <c r="E20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1480,10 +1571,10 @@
       <c r="E21" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -1496,10 +1587,10 @@
       <c r="E22" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -1512,10 +1603,10 @@
       <c r="E23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -1528,10 +1619,10 @@
       <c r="E24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -1544,10 +1635,10 @@
       <c r="E25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -1560,10 +1651,10 @@
       <c r="E26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -1576,10 +1667,10 @@
       <c r="E27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -1592,10 +1683,10 @@
       <c r="E28" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -1608,10 +1699,10 @@
       <c r="E29" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -1624,10 +1715,10 @@
       <c r="E30" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A32" s="1" t="s">
         <v>225</v>
       </c>
@@ -1644,7 +1735,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -1660,12 +1751,12 @@
       <c r="E34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -1681,10 +1772,10 @@
       <c r="E35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
@@ -1700,10 +1791,10 @@
       <c r="E36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
@@ -1719,10 +1810,10 @@
       <c r="E37" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A38" s="1" t="s">
         <v>73</v>
       </c>
@@ -1735,10 +1826,10 @@
       <c r="E38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -1754,10 +1845,10 @@
       <c r="E39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
@@ -1773,10 +1864,10 @@
       <c r="E40" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A41" s="1" t="s">
         <v>83</v>
       </c>
@@ -1792,10 +1883,10 @@
       <c r="E41" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
@@ -1811,10 +1902,10 @@
       <c r="E42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A43" s="1" t="s">
         <v>90</v>
       </c>
@@ -1830,10 +1921,10 @@
       <c r="E43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A44" s="1" t="s">
         <v>94</v>
       </c>
@@ -1846,10 +1937,10 @@
       <c r="E44" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A45" s="1" t="s">
         <v>97</v>
       </c>
@@ -1865,10 +1956,10 @@
       <c r="E45" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A46" s="1" t="s">
         <v>100</v>
       </c>
@@ -1884,10 +1975,10 @@
       <c r="E46" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A47" s="1" t="s">
         <v>102</v>
       </c>
@@ -1903,10 +1994,10 @@
       <c r="E47" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A49" s="1" t="s">
         <v>226</v>
       </c>
@@ -1923,7 +2014,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A51" s="1" t="s">
         <v>110</v>
       </c>
@@ -1939,12 +2030,21 @@
       <c r="E51" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H51" s="5"/>
+      <c r="J51" s="3" t="str">
+        <f>"&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class"&amp;K51&amp;"'fh5co-position'&gt;"&amp;D51&amp;"&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src"&amp;K51&amp;"'../pic/example.png' alt"&amp;K51&amp;"'Image'&gt;&lt;/figure&gt;"</f>
+        <v>&lt;h3&gt;演劇部&lt;/h3&gt;&lt;strong&gt;高校大会演目 / 三原色&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;メモリアルホール&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A52" s="1" t="s">
         <v>113</v>
       </c>
@@ -1960,10 +2060,20 @@
       <c r="E52" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="J52" s="3" t="str">
+        <f t="shared" ref="J52:J99" si="0">"&lt;h3&gt;"&amp;A52&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C52&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class"&amp;K52&amp;"'fh5co-position'&gt;"&amp;D52&amp;"&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src"&amp;K52&amp;"'../pic/example.png' alt"&amp;K52&amp;"'Image'&gt;&lt;/figure&gt;"</f>
+        <v>&lt;h3&gt;弦楽器講座&lt;/h3&gt;&lt;strong&gt;弦楽アンサンブル&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;メモリアルホール&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A53" s="1" t="s">
         <v>115</v>
       </c>
@@ -1979,10 +2089,18 @@
       <c r="E53" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="J53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;剣道部&lt;/h3&gt;&lt;strong&gt;アリとアリとキリギリス&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;メモリアルホール&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="129" x14ac:dyDescent="0.65">
       <c r="A54" s="1" t="s">
         <v>117</v>
       </c>
@@ -1998,10 +2116,18 @@
       <c r="E54" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="J54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;茶道部&lt;/h3&gt;&lt;strong&gt;お茶会&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;茶室&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="129" x14ac:dyDescent="0.65">
       <c r="A55" s="1" t="s">
         <v>120</v>
       </c>
@@ -2017,10 +2143,18 @@
       <c r="E55" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="J55" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;料理部&lt;/h3&gt;&lt;strong&gt;お菓子の家&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;調理室前&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A56" s="1" t="s">
         <v>123</v>
       </c>
@@ -2036,10 +2170,18 @@
       <c r="E56" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="J56" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;鉄道研究部&lt;/h3&gt;&lt;strong&gt;S-Train&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;015教室&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A57" s="1" t="s">
         <v>126</v>
       </c>
@@ -2055,10 +2197,18 @@
       <c r="E57" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="J57" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;軽音楽部&lt;/h3&gt;&lt;strong&gt;弾丸 -バレット- ライブ&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;121教室&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="129" x14ac:dyDescent="0.65">
       <c r="A58" s="1" t="s">
         <v>130</v>
       </c>
@@ -2074,10 +2224,18 @@
       <c r="E58" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="J58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;吹奏楽部&lt;/h3&gt;&lt;strong&gt;地球見聞録&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;第一体育館&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A59" s="1" t="s">
         <v>133</v>
       </c>
@@ -2093,10 +2251,18 @@
       <c r="E59" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="J59" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;ダンス部&lt;/h3&gt;&lt;strong&gt;NEVERLAND&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;第一体育館&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="129" x14ac:dyDescent="0.65">
       <c r="A60" s="1" t="s">
         <v>135</v>
       </c>
@@ -2112,10 +2278,18 @@
       <c r="E60" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="J60" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;バトン部&lt;/h3&gt;&lt;strong&gt;映画祭&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;第一体育館&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="129" x14ac:dyDescent="0.65">
       <c r="A61" s="1" t="s">
         <v>137</v>
       </c>
@@ -2131,10 +2305,18 @@
       <c r="E61" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="J61" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;社会化研究会&lt;/h3&gt;&lt;strong&gt; #You Too&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;3年Ｃ組&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A62" s="1" t="s">
         <v>140</v>
       </c>
@@ -2150,10 +2332,18 @@
       <c r="E62" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="J62" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;ボランティア部&lt;/h3&gt;&lt;strong&gt;ボランティア部バザー&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;３年D組&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A63" s="1" t="s">
         <v>143</v>
       </c>
@@ -2169,10 +2359,18 @@
       <c r="E63" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="J63" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;文芸部&lt;/h3&gt;&lt;strong&gt;文芸部誌配布&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;4階エレベーターホール&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A64" s="1" t="s">
         <v>147</v>
       </c>
@@ -2188,10 +2386,18 @@
       <c r="E64" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="J64" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;美術部&lt;/h3&gt;&lt;strong&gt;美術部〜エキシビション〜&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;理科室Ⅰ&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="129" x14ac:dyDescent="0.65">
       <c r="A65" s="1" t="s">
         <v>150</v>
       </c>
@@ -2207,10 +2413,18 @@
       <c r="E65" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="J65" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;理科部&lt;/h3&gt;&lt;strong&gt;理㈱19&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;理科室Ⅱ&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A66" s="1" t="s">
         <v>152</v>
       </c>
@@ -2226,10 +2440,18 @@
       <c r="E66" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="J66" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;競技かるた部&lt;/h3&gt;&lt;strong&gt;競技かるたの世界へようこそ&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;715&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A67" s="1" t="s">
         <v>154</v>
       </c>
@@ -2245,10 +2467,18 @@
       <c r="E67" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="J67" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;コンピューター部&lt;/h3&gt;&lt;strong&gt;３Dモデル＆ゲーム展示・体験&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;ICT1&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A68" s="1" t="s">
         <v>158</v>
       </c>
@@ -2264,10 +2494,18 @@
       <c r="E68" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="J68" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;数学研究会&lt;/h3&gt;&lt;strong&gt;SSS&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;被服室&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A69" s="1" t="s">
         <v>161</v>
       </c>
@@ -2283,10 +2521,18 @@
       <c r="E69" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="J69" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;英語ディベート部&lt;/h3&gt;&lt;strong&gt;ロジカルバナナ&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;視聴覚室&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="129" x14ac:dyDescent="0.65">
       <c r="A70" s="1" t="s">
         <v>164</v>
       </c>
@@ -2302,10 +2548,18 @@
       <c r="E70" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="J70" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;合唱部&lt;/h3&gt;&lt;strong&gt;合唱部。'18&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;音楽室&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A71" s="1" t="s">
         <v>167</v>
       </c>
@@ -2321,10 +2575,18 @@
       <c r="E71" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="J71" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;クイズ研究会&lt;/h3&gt;&lt;strong&gt;¿クイズまず行く?4th&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;視聴覚室&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="129" x14ac:dyDescent="0.65">
       <c r="A72" s="1" t="s">
         <v>169</v>
       </c>
@@ -2340,10 +2602,18 @@
       <c r="E72" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="J72" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;将棋部&lt;/h3&gt;&lt;strong&gt;おれらの将棋道場&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;800&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A73" s="1" t="s">
         <v>171</v>
       </c>
@@ -2359,10 +2629,28 @@
       <c r="E73" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="J73" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;討論同好会&lt;/h3&gt;&lt;strong&gt;それ、討論してみない？&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;視聴覚室&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="110.6" x14ac:dyDescent="0.65">
+      <c r="J74" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;&lt;/h3&gt;&lt;strong&gt;&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="129" x14ac:dyDescent="0.65">
       <c r="A75" s="1" t="s">
         <v>175</v>
       </c>
@@ -2378,8 +2666,26 @@
       <c r="E75" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J75" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;団体名&lt;/h3&gt;&lt;strong&gt;タイトル&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;場所&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="110.6" x14ac:dyDescent="0.65">
+      <c r="J76" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;&lt;/h3&gt;&lt;strong&gt;&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A77" s="1" t="s">
         <v>183</v>
       </c>
@@ -2392,12 +2698,20 @@
       <c r="E77" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="H77" s="2"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H77" s="5"/>
+      <c r="J77" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;劇団２０期&lt;/h3&gt;&lt;strong&gt;&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;メモリアルホール&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A78" s="1" t="s">
         <v>184</v>
       </c>
@@ -2413,10 +2727,18 @@
       <c r="E78" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="J78" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;劇団１９期&lt;/h3&gt;&lt;strong&gt;白雪姫と7匹の子ヤギ&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;第一体育館&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A79" s="1" t="s">
         <v>186</v>
       </c>
@@ -2429,10 +2751,18 @@
       <c r="E79" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="J79" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;劇団１８期&lt;/h3&gt;&lt;strong&gt;&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;第一体育館&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A80" s="1" t="s">
         <v>187</v>
       </c>
@@ -2448,10 +2778,18 @@
       <c r="E80" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="J80" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;渋渋オーケストラ&lt;/h3&gt;&lt;strong&gt;新たなる音楽への旅立ち&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;第一体育館&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="129" x14ac:dyDescent="0.65">
       <c r="A81" s="1" t="s">
         <v>189</v>
       </c>
@@ -2467,10 +2805,18 @@
       <c r="E81" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="J81" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;渋ラジ&lt;/h3&gt;&lt;strong&gt;渋ラジα&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;カフェテリア&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A82" s="1" t="s">
         <v>192</v>
       </c>
@@ -2486,10 +2832,18 @@
       <c r="E82" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="J82" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;高3食品販売 タピオカ&lt;/h3&gt;&lt;strong&gt;私立多飛丘高校&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;カフェテリア&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A83" s="1" t="s">
         <v>195</v>
       </c>
@@ -2505,10 +2859,18 @@
       <c r="E83" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="J83" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;高3食品販売 アイス&lt;/h3&gt;&lt;strong&gt;アイスに向かって叫べ！&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;3年E組&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A84" s="1" t="s">
         <v>198</v>
       </c>
@@ -2524,10 +2886,18 @@
       <c r="E84" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="J84" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;高3食品販売 駄菓子&lt;/h3&gt;&lt;strong&gt;倶楽部 DAGASHI&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;3年F組&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A85" s="1" t="s">
         <v>201</v>
       </c>
@@ -2543,10 +2913,18 @@
       <c r="E85" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="J85" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;(有)ドアノブ社&lt;/h3&gt;&lt;strong&gt;ファラオ配布所&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;５００前&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="129" x14ac:dyDescent="0.65">
       <c r="A86" s="1" t="s">
         <v>205</v>
       </c>
@@ -2562,10 +2940,18 @@
       <c r="E86" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="J86" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;折り紙研究会&lt;/h3&gt;&lt;strong&gt;折り紙ワールド&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;被服室&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A87" s="1" t="s">
         <v>207</v>
       </c>
@@ -2581,10 +2967,18 @@
       <c r="E87" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="J87" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;渋渋ソングス&lt;/h3&gt;&lt;strong&gt;渋渋ソングス（保護者有志）&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;音楽室&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="129" x14ac:dyDescent="0.65">
       <c r="A88" s="1" t="s">
         <v>209</v>
       </c>
@@ -2600,10 +2994,18 @@
       <c r="E88" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="J88" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;しぶやフレンズ&lt;/h3&gt;&lt;strong&gt;しぶやフレンズ 2&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;音楽室&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="129" x14ac:dyDescent="0.65">
       <c r="A89" s="1" t="s">
         <v>211</v>
       </c>
@@ -2619,10 +3021,18 @@
       <c r="E89" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="J89" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;musik guild&lt;/h3&gt;&lt;strong&gt;アンサンブル19&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;音楽室&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A90" s="1" t="s">
         <v>213</v>
       </c>
@@ -2638,10 +3048,18 @@
       <c r="E90" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="J90" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;リコーダー同好会&lt;/h3&gt;&lt;strong&gt;響け！リコーダー！！！&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;音楽室&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="129" x14ac:dyDescent="0.65">
       <c r="A91" s="1" t="s">
         <v>215</v>
       </c>
@@ -2657,10 +3075,28 @@
       <c r="E91" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="J91" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;PianisterZ&lt;/h3&gt;&lt;strong&gt;ピアニスターズ&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;音楽室&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="110.6" x14ac:dyDescent="0.65">
+      <c r="J92" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;&lt;/h3&gt;&lt;strong&gt;&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="129" x14ac:dyDescent="0.65">
       <c r="A93" s="1" t="s">
         <v>227</v>
       </c>
@@ -2673,8 +3109,26 @@
       <c r="D93" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J93" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;部活&lt;/h3&gt;&lt;strong&gt;使用場所&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;フロア&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="110.6" x14ac:dyDescent="0.65">
+      <c r="J94" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;&lt;/h3&gt;&lt;strong&gt;&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A95" s="1" t="s">
         <v>218</v>
       </c>
@@ -2684,42 +3138,74 @@
       <c r="D95" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="G95" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="H95" s="2"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H95" s="5"/>
+      <c r="J95" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;女子バレーボール部&lt;/h3&gt;&lt;strong&gt;第二体育館&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;1階&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A96" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="J96" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;男子バレーボール部&lt;/h3&gt;&lt;strong&gt;第二体育館&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A97" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="J97" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;女子バスケットボール部&lt;/h3&gt;&lt;strong&gt;第二体育館&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A98" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="J98" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;男子バスケットボール部&lt;/h3&gt;&lt;strong&gt;第二体育館&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="129" x14ac:dyDescent="0.65">
       <c r="A99" s="1" t="s">
         <v>223</v>
       </c>
@@ -2729,8 +3215,101 @@
       <c r="D99" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="J99" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h3&gt;卓球部&lt;/h3&gt;&lt;strong&gt;メモリアルホール&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;B1階&lt;/span&gt;   
+&lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+      <c r="J100" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+      <c r="J101" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+      <c r="J102" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+      <c r="J103" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+      <c r="J104" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+      <c r="J105" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+      <c r="J106" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+      <c r="J107" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+      <c r="J108" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+      <c r="J109" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+      <c r="J110" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+      <c r="J111" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+      <c r="J112" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="113" spans="10:10" ht="147.44999999999999" x14ac:dyDescent="0.65">
+      <c r="J113" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="114" spans="10:10" ht="147.44999999999999" x14ac:dyDescent="0.65">
+      <c r="J114" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="115" spans="10:10" ht="147.44999999999999" x14ac:dyDescent="0.65">
+      <c r="J115" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="116" spans="10:10" ht="147.44999999999999" x14ac:dyDescent="0.65">
+      <c r="J116" s="3" t="s">
+        <v>248</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/企画リスト.xlsx
+++ b/企画リスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasatomo03\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RayOtsuka/Desktop/homepage--/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E06132-1E2A-4CD4-9621-383DB60F6899}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{87C4AEB8-EF9A-6142-A5B3-48EB6FE413DC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28640" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="233">
   <si>
     <t>1年１組</t>
   </si>
@@ -823,74 +823,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D100&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
-              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
-  </si>
-  <si>
-    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D101&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
-              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
-  </si>
-  <si>
-    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D102&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
-              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
-  </si>
-  <si>
-    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D103&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
-              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
-  </si>
-  <si>
-    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D104&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
-              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
-  </si>
-  <si>
-    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D105&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
-              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
-  </si>
-  <si>
-    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D106&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
-              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
-  </si>
-  <si>
-    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D107&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
-              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
-  </si>
-  <si>
-    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D108&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
-              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
-  </si>
-  <si>
-    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D109&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
-              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
-  </si>
-  <si>
-    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D110&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
-              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
-  </si>
-  <si>
-    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D111&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
-              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
-  </si>
-  <si>
-    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D112&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
-              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
-  </si>
-  <si>
-    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D113&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
-              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
-  </si>
-  <si>
-    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D114&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
-              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
-  </si>
-  <si>
-    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D115&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
-              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
-  </si>
-  <si>
-    <t>="&lt;h3&gt;"&amp;A51&amp;"&lt;/h3&gt;&lt;strong&gt;"&amp;C51&amp;"&lt;/strong&gt;&lt;br&gt;&lt;span class="fh5co-position"&gt;"&amp;D116&amp;"&lt;/span&gt;  &lt;br&gt;コーヒー一杯で三回もふもふもふもふもふもふ&lt;br&gt;
-              &lt;figure&gt;&lt;img src="../pic/example.png" alt="Image"&gt;&lt;/figure&gt;</t>
-  </si>
-  <si>
     <t>=</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -899,7 +831,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1239,22 +1171,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="135" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100:J136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
     <col min="5" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="35.35546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.33203125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>224</v>
       </c>
@@ -1268,7 +1200,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +1218,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1302,7 +1234,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1318,7 +1250,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1334,7 +1266,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1350,7 +1282,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,7 +1298,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1382,7 +1314,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1398,7 +1330,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1414,7 +1346,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1430,7 +1362,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1446,7 +1378,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1462,7 +1394,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1478,7 +1410,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1494,7 +1426,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -1510,7 +1442,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1526,7 +1458,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1542,7 +1474,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1558,7 +1490,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1574,7 +1506,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -1590,7 +1522,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -1606,7 +1538,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -1622,7 +1554,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -1638,7 +1570,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -1654,7 +1586,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -1670,7 +1602,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -1686,7 +1618,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -1702,7 +1634,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -1718,7 +1650,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>225</v>
       </c>
@@ -1735,7 +1667,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -1756,7 +1688,7 @@
       </c>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -1775,7 +1707,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
@@ -1794,7 +1726,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
@@ -1813,7 +1745,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>73</v>
       </c>
@@ -1829,7 +1761,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -1848,7 +1780,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
@@ -1867,7 +1799,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>83</v>
       </c>
@@ -1886,7 +1818,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
@@ -1905,7 +1837,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>90</v>
       </c>
@@ -1924,7 +1856,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>94</v>
       </c>
@@ -1940,7 +1872,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>97</v>
       </c>
@@ -1959,7 +1891,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>100</v>
       </c>
@@ -1978,7 +1910,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>102</v>
       </c>
@@ -1997,7 +1929,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
         <v>226</v>
       </c>
@@ -2014,7 +1946,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:12" ht="144">
       <c r="A51" s="1" t="s">
         <v>110</v>
       </c>
@@ -2041,10 +1973,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="144">
       <c r="A52" s="1" t="s">
         <v>113</v>
       </c>
@@ -2069,11 +2001,11 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:12" ht="144">
       <c r="A53" s="1" t="s">
         <v>115</v>
       </c>
@@ -2097,10 +2029,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="129" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="126">
       <c r="A54" s="1" t="s">
         <v>117</v>
       </c>
@@ -2124,10 +2056,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="129" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="126">
       <c r="A55" s="1" t="s">
         <v>120</v>
       </c>
@@ -2151,10 +2083,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="126">
       <c r="A56" s="1" t="s">
         <v>123</v>
       </c>
@@ -2178,10 +2110,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="126">
       <c r="A57" s="1" t="s">
         <v>126</v>
       </c>
@@ -2205,10 +2137,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="129" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="126">
       <c r="A58" s="1" t="s">
         <v>130</v>
       </c>
@@ -2232,10 +2164,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="144">
       <c r="A59" s="1" t="s">
         <v>133</v>
       </c>
@@ -2259,10 +2191,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="129" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="126">
       <c r="A60" s="1" t="s">
         <v>135</v>
       </c>
@@ -2286,10 +2218,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="129" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="126">
       <c r="A61" s="1" t="s">
         <v>137</v>
       </c>
@@ -2313,10 +2245,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="144">
       <c r="A62" s="1" t="s">
         <v>140</v>
       </c>
@@ -2340,10 +2272,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="144">
       <c r="A63" s="1" t="s">
         <v>143</v>
       </c>
@@ -2367,10 +2299,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="144">
       <c r="A64" s="1" t="s">
         <v>147</v>
       </c>
@@ -2394,10 +2326,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="129" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="126">
       <c r="A65" s="1" t="s">
         <v>150</v>
       </c>
@@ -2421,10 +2353,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="144">
       <c r="A66" s="1" t="s">
         <v>152</v>
       </c>
@@ -2448,10 +2380,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="144">
       <c r="A67" s="1" t="s">
         <v>154</v>
       </c>
@@ -2475,10 +2407,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="126">
       <c r="A68" s="1" t="s">
         <v>158</v>
       </c>
@@ -2502,10 +2434,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="144">
       <c r="A69" s="1" t="s">
         <v>161</v>
       </c>
@@ -2529,10 +2461,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="129" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="126">
       <c r="A70" s="1" t="s">
         <v>164</v>
       </c>
@@ -2556,10 +2488,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="144">
       <c r="A71" s="1" t="s">
         <v>167</v>
       </c>
@@ -2583,10 +2515,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="129" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="126">
       <c r="A72" s="1" t="s">
         <v>169</v>
       </c>
@@ -2610,10 +2542,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="144">
       <c r="A73" s="1" t="s">
         <v>171</v>
       </c>
@@ -2637,20 +2569,20 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="110.6" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="108">
       <c r="J74" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;h3&gt;&lt;/h3&gt;&lt;strong&gt;&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;&lt;/span&gt;   
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="129" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="126">
       <c r="A75" s="1" t="s">
         <v>175</v>
       </c>
@@ -2672,20 +2604,20 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="110.6" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="108">
       <c r="J76" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;h3&gt;&lt;/h3&gt;&lt;strong&gt;&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;&lt;/span&gt;   
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="144">
       <c r="A77" s="1" t="s">
         <v>183</v>
       </c>
@@ -2708,10 +2640,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="144">
       <c r="A78" s="1" t="s">
         <v>184</v>
       </c>
@@ -2735,10 +2667,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="144">
       <c r="A79" s="1" t="s">
         <v>186</v>
       </c>
@@ -2759,10 +2691,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="144">
       <c r="A80" s="1" t="s">
         <v>187</v>
       </c>
@@ -2786,10 +2718,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="129" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="126">
       <c r="A81" s="1" t="s">
         <v>189</v>
       </c>
@@ -2813,10 +2745,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="144">
       <c r="A82" s="1" t="s">
         <v>192</v>
       </c>
@@ -2840,10 +2772,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="144">
       <c r="A83" s="1" t="s">
         <v>195</v>
       </c>
@@ -2867,10 +2799,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="126">
       <c r="A84" s="1" t="s">
         <v>198</v>
       </c>
@@ -2894,10 +2826,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="144">
       <c r="A85" s="1" t="s">
         <v>201</v>
       </c>
@@ -2921,10 +2853,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="129" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="126">
       <c r="A86" s="1" t="s">
         <v>205</v>
       </c>
@@ -2948,10 +2880,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="144">
       <c r="A87" s="1" t="s">
         <v>207</v>
       </c>
@@ -2975,10 +2907,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="129" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="126">
       <c r="A88" s="1" t="s">
         <v>209</v>
       </c>
@@ -3002,10 +2934,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="129" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="126">
       <c r="A89" s="1" t="s">
         <v>211</v>
       </c>
@@ -3029,10 +2961,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="144">
       <c r="A90" s="1" t="s">
         <v>213</v>
       </c>
@@ -3056,10 +2988,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="129" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="126">
       <c r="A91" s="1" t="s">
         <v>215</v>
       </c>
@@ -3083,20 +3015,20 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="110.6" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="108">
       <c r="J92" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;h3&gt;&lt;/h3&gt;&lt;strong&gt;&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;&lt;/span&gt;   
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="129" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="126">
       <c r="A93" s="1" t="s">
         <v>227</v>
       </c>
@@ -3115,20 +3047,20 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="110.6" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="108">
       <c r="J94" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;h3&gt;&lt;/h3&gt;&lt;strong&gt;&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;&lt;/span&gt;   
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="144">
       <c r="A95" s="1" t="s">
         <v>218</v>
       </c>
@@ -3148,10 +3080,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="144">
       <c r="A96" s="1" t="s">
         <v>220</v>
       </c>
@@ -3166,10 +3098,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="144">
       <c r="A97" s="1" t="s">
         <v>221</v>
       </c>
@@ -3184,10 +3116,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="144">
       <c r="A98" s="1" t="s">
         <v>222</v>
       </c>
@@ -3202,10 +3134,10 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="129" x14ac:dyDescent="0.65">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="126">
       <c r="A99" s="1" t="s">
         <v>223</v>
       </c>
@@ -3223,93 +3155,59 @@
 &lt;br&gt;コ&lt;br&gt;&lt;figure&gt;&lt;img src='../pic/example.png' alt='Image'&gt;&lt;/figure&gt;</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
-      <c r="J100" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
-      <c r="J101" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
-      <c r="J102" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
-      <c r="J103" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
-      <c r="J104" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
-      <c r="J105" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
-      <c r="J106" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
-      <c r="J107" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
-      <c r="J108" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
-      <c r="J109" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
-      <c r="J110" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
-      <c r="J111" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
-      <c r="J112" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="113" spans="10:10" ht="147.44999999999999" x14ac:dyDescent="0.65">
-      <c r="J113" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="114" spans="10:10" ht="147.44999999999999" x14ac:dyDescent="0.65">
-      <c r="J114" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="115" spans="10:10" ht="147.44999999999999" x14ac:dyDescent="0.65">
-      <c r="J115" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="116" spans="10:10" ht="147.44999999999999" x14ac:dyDescent="0.65">
-      <c r="J116" s="3" t="s">
-        <v>248</v>
-      </c>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="J101" s="3"/>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="J102" s="3"/>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="J103" s="3"/>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="J104" s="3"/>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="J105" s="3"/>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="J106" s="3"/>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="J107" s="3"/>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="J108" s="3"/>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="J109" s="3"/>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="J110" s="3"/>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="J111" s="3"/>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="J112" s="3"/>
+    </row>
+    <row r="113" spans="10:10">
+      <c r="J113" s="3"/>
+    </row>
+    <row r="114" spans="10:10">
+      <c r="J114" s="3"/>
+    </row>
+    <row r="115" spans="10:10">
+      <c r="J115" s="3"/>
+    </row>
+    <row r="116" spans="10:10">
+      <c r="J116" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/企画リスト.xlsx
+++ b/企画リスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RayOtsuka/Desktop/homepage--/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasatomo03\Desktop\hiryusai_homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{87C4AEB8-EF9A-6142-A5B3-48EB6FE413DC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5BF0E7-A60B-4319-BD9C-59446CD37479}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28640" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="437" windowWidth="28637" windowHeight="17503" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -831,7 +831,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1171,22 +1171,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="135" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J100" sqref="J100:J136"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
     <col min="5" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="35.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.35546875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>224</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1234,7 +1234,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1250,7 +1250,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1266,7 +1266,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1282,7 +1282,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1314,7 +1314,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1330,7 +1330,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1346,7 +1346,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1362,7 +1362,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1378,7 +1378,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1394,7 +1394,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1410,7 +1410,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1490,7 +1490,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1506,7 +1506,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -1522,7 +1522,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -1554,7 +1554,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -1570,7 +1570,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -1586,7 +1586,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -1602,7 +1602,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -1618,7 +1618,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -1634,7 +1634,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A32" s="1" t="s">
         <v>225</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -1707,7 +1707,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
@@ -1726,7 +1726,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
@@ -1745,7 +1745,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A38" s="1" t="s">
         <v>73</v>
       </c>
@@ -1761,7 +1761,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -1780,7 +1780,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
@@ -1799,7 +1799,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A41" s="1" t="s">
         <v>83</v>
       </c>
@@ -1818,7 +1818,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
@@ -1837,7 +1837,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A43" s="1" t="s">
         <v>90</v>
       </c>
@@ -1856,7 +1856,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A44" s="1" t="s">
         <v>94</v>
       </c>
@@ -1872,7 +1872,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A45" s="1" t="s">
         <v>97</v>
       </c>
@@ -1891,7 +1891,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A46" s="1" t="s">
         <v>100</v>
       </c>
@@ -1910,7 +1910,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A47" s="1" t="s">
         <v>102</v>
       </c>
@@ -1929,7 +1929,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A49" s="1" t="s">
         <v>226</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="144">
+    <row r="51" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A51" s="1" t="s">
         <v>110</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="144">
+    <row r="52" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A52" s="1" t="s">
         <v>113</v>
       </c>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="144">
+    <row r="53" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A53" s="1" t="s">
         <v>115</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="126">
+    <row r="54" spans="1:12" ht="129" x14ac:dyDescent="0.65">
       <c r="A54" s="1" t="s">
         <v>117</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="126">
+    <row r="55" spans="1:12" ht="129" x14ac:dyDescent="0.65">
       <c r="A55" s="1" t="s">
         <v>120</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="126">
+    <row r="56" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A56" s="1" t="s">
         <v>123</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="126">
+    <row r="57" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A57" s="1" t="s">
         <v>126</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="126">
+    <row r="58" spans="1:12" ht="129" x14ac:dyDescent="0.65">
       <c r="A58" s="1" t="s">
         <v>130</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="144">
+    <row r="59" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A59" s="1" t="s">
         <v>133</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="126">
+    <row r="60" spans="1:12" ht="129" x14ac:dyDescent="0.65">
       <c r="A60" s="1" t="s">
         <v>135</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="126">
+    <row r="61" spans="1:12" ht="129" x14ac:dyDescent="0.65">
       <c r="A61" s="1" t="s">
         <v>137</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="144">
+    <row r="62" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A62" s="1" t="s">
         <v>140</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="144">
+    <row r="63" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A63" s="1" t="s">
         <v>143</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="144">
+    <row r="64" spans="1:12" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A64" s="1" t="s">
         <v>147</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="126">
+    <row r="65" spans="1:11" ht="129" x14ac:dyDescent="0.65">
       <c r="A65" s="1" t="s">
         <v>150</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="144">
+    <row r="66" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A66" s="1" t="s">
         <v>152</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="144">
+    <row r="67" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A67" s="1" t="s">
         <v>154</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="126">
+    <row r="68" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A68" s="1" t="s">
         <v>158</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="144">
+    <row r="69" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A69" s="1" t="s">
         <v>161</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="126">
+    <row r="70" spans="1:11" ht="129" x14ac:dyDescent="0.65">
       <c r="A70" s="1" t="s">
         <v>164</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="144">
+    <row r="71" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A71" s="1" t="s">
         <v>167</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="126">
+    <row r="72" spans="1:11" ht="129" x14ac:dyDescent="0.65">
       <c r="A72" s="1" t="s">
         <v>169</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="144">
+    <row r="73" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A73" s="1" t="s">
         <v>171</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="108">
+    <row r="74" spans="1:11" ht="110.6" x14ac:dyDescent="0.65">
       <c r="J74" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;h3&gt;&lt;/h3&gt;&lt;strong&gt;&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;&lt;/span&gt;   
@@ -2582,7 +2582,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="126">
+    <row r="75" spans="1:11" ht="129" x14ac:dyDescent="0.65">
       <c r="A75" s="1" t="s">
         <v>175</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="108">
+    <row r="76" spans="1:11" ht="110.6" x14ac:dyDescent="0.65">
       <c r="J76" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;h3&gt;&lt;/h3&gt;&lt;strong&gt;&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;&lt;/span&gt;   
@@ -2617,7 +2617,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="144">
+    <row r="77" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A77" s="1" t="s">
         <v>183</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="144">
+    <row r="78" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A78" s="1" t="s">
         <v>184</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="144">
+    <row r="79" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A79" s="1" t="s">
         <v>186</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="144">
+    <row r="80" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A80" s="1" t="s">
         <v>187</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="126">
+    <row r="81" spans="1:11" ht="129" x14ac:dyDescent="0.65">
       <c r="A81" s="1" t="s">
         <v>189</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="144">
+    <row r="82" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A82" s="1" t="s">
         <v>192</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="144">
+    <row r="83" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A83" s="1" t="s">
         <v>195</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="126">
+    <row r="84" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A84" s="1" t="s">
         <v>198</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="144">
+    <row r="85" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A85" s="1" t="s">
         <v>201</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="126">
+    <row r="86" spans="1:11" ht="129" x14ac:dyDescent="0.65">
       <c r="A86" s="1" t="s">
         <v>205</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="144">
+    <row r="87" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A87" s="1" t="s">
         <v>207</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="126">
+    <row r="88" spans="1:11" ht="129" x14ac:dyDescent="0.65">
       <c r="A88" s="1" t="s">
         <v>209</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="126">
+    <row r="89" spans="1:11" ht="129" x14ac:dyDescent="0.65">
       <c r="A89" s="1" t="s">
         <v>211</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="144">
+    <row r="90" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A90" s="1" t="s">
         <v>213</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="126">
+    <row r="91" spans="1:11" ht="129" x14ac:dyDescent="0.65">
       <c r="A91" s="1" t="s">
         <v>215</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="108">
+    <row r="92" spans="1:11" ht="110.6" x14ac:dyDescent="0.65">
       <c r="J92" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;h3&gt;&lt;/h3&gt;&lt;strong&gt;&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;&lt;/span&gt;   
@@ -3028,7 +3028,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="126">
+    <row r="93" spans="1:11" ht="129" x14ac:dyDescent="0.65">
       <c r="A93" s="1" t="s">
         <v>227</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="108">
+    <row r="94" spans="1:11" ht="110.6" x14ac:dyDescent="0.65">
       <c r="J94" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;h3&gt;&lt;/h3&gt;&lt;strong&gt;&lt;/strong&gt;&lt;br&gt;&lt;span class='fh5co-position'&gt;&lt;/span&gt;   
@@ -3060,7 +3060,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="144">
+    <row r="95" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A95" s="1" t="s">
         <v>218</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="144">
+    <row r="96" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A96" s="1" t="s">
         <v>220</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="144">
+    <row r="97" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A97" s="1" t="s">
         <v>221</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="144">
+    <row r="98" spans="1:11" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A98" s="1" t="s">
         <v>222</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="126">
+    <row r="99" spans="1:11" ht="129" x14ac:dyDescent="0.65">
       <c r="A99" s="1" t="s">
         <v>223</v>
       </c>
@@ -3158,55 +3158,55 @@
         <v>232</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.65">
       <c r="J100" s="3"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.65">
       <c r="J101" s="3"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.65">
       <c r="J102" s="3"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.65">
       <c r="J103" s="3"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.65">
       <c r="J104" s="3"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.65">
       <c r="J105" s="3"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.65">
       <c r="J106" s="3"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.65">
       <c r="J107" s="3"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.65">
       <c r="J108" s="3"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.65">
       <c r="J109" s="3"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.65">
       <c r="J110" s="3"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.65">
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.65">
       <c r="J112" s="3"/>
     </row>
-    <row r="113" spans="10:10">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.65">
       <c r="J113" s="3"/>
     </row>
-    <row r="114" spans="10:10">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.65">
       <c r="J114" s="3"/>
     </row>
-    <row r="115" spans="10:10">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.65">
       <c r="J115" s="3"/>
     </row>
-    <row r="116" spans="10:10">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.65">
       <c r="J116" s="3"/>
     </row>
   </sheetData>

--- a/企画リスト.xlsx
+++ b/企画リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasatomo03\Desktop\hiryusai_homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5BF0E7-A60B-4319-BD9C-59446CD37479}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD1EEFC-79B8-4058-97C7-D86715AE63ED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="437" windowWidth="28637" windowHeight="17503" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1171,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
